--- a/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
@@ -782,7 +782,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,14 +843,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,13 +875,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1220,7 +1222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1231,453 +1233,447 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF38"/>
+  <dimension ref="A1:BE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="20" width="3" customWidth="1"/>
-    <col min="22" max="37" width="3" customWidth="1"/>
-    <col min="38" max="38" width="5.28515625" customWidth="1"/>
-    <col min="39" max="42" width="5.85546875" customWidth="1"/>
-    <col min="43" max="43" width="6.42578125" customWidth="1"/>
-    <col min="44" max="44" width="5.28515625" customWidth="1"/>
-    <col min="45" max="45" width="5.140625" customWidth="1"/>
-    <col min="46" max="58" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="19" width="3" customWidth="1"/>
+    <col min="21" max="36" width="3" customWidth="1"/>
+    <col min="37" max="37" width="5.28515625" customWidth="1"/>
+    <col min="38" max="41" width="5.85546875" customWidth="1"/>
+    <col min="42" max="42" width="6.42578125" customWidth="1"/>
+    <col min="43" max="43" width="5.28515625" customWidth="1"/>
+    <col min="44" max="44" width="5.140625" customWidth="1"/>
+    <col min="45" max="57" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AI2" s="44" t="s">
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AH2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AI3" s="44" t="s">
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AH3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AQ3" s="44" t="s">
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AP3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-    </row>
-    <row r="4" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="S4" s="45" t="s">
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+    </row>
+    <row r="4" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+      <c r="R4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AI4" s="44" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AH4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AQ4" s="44" t="s">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AP4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-    </row>
-    <row r="5" spans="1:58" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="S5" s="46" t="s">
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+    </row>
+    <row r="5" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AI5" s="44" t="s">
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AH5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AQ5" s="44" t="s">
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AP5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AI6" s="44" t="s">
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AH6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AQ6" s="44" t="s">
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AP6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AI7" s="44" t="s">
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AH7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AP7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AI8" s="44" t="s">
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AH8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AQ8" s="44" t="s">
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AP8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S9" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X9" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y9" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z9" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA9" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB9" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC9" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE9" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF9" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG9" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH9" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK9" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL9" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM9" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN9" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO9" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP9" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ9" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR9" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS9" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT9" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU9" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV9" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW9" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX9" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY9" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ9" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE9" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF9" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="3" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM10" s="38" t="s">
+      <c r="AL10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="3" t="s">
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AS10" s="14" t="s">
+      <c r="AR10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="38" t="s">
+      <c r="AS10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="40"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="41"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="42"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1685,176 +1681,177 @@
         <v>20</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="4" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="4" t="s">
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AS11" s="13" t="s">
+      <c r="AR11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="34"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="48"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
+      <c r="D12" s="7"/>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
       <c r="G12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="6">
-        <v>3</v>
-      </c>
-      <c r="I12" s="6">
         <v>4</v>
       </c>
+      <c r="I12" s="12">
+        <v>5</v>
+      </c>
       <c r="J12" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R12" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S12" s="12">
-        <v>14</v>
-      </c>
-      <c r="T12" s="12">
         <v>15</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="U12" s="12">
+        <v>16</v>
+      </c>
       <c r="V12" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W12" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X12" s="12">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>21</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>23</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>26</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>27</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>28</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>29</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>30</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>31</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" s="12">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>20</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>21</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>22</v>
-      </c>
-      <c r="AC12" s="12">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="12">
-        <v>24</v>
-      </c>
-      <c r="AE12" s="12">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="12">
-        <v>26</v>
-      </c>
-      <c r="AG12" s="12">
-        <v>27</v>
-      </c>
-      <c r="AH12" s="12">
-        <v>28</v>
-      </c>
-      <c r="AI12" s="12">
-        <v>29</v>
-      </c>
-      <c r="AJ12" s="12">
-        <v>30</v>
-      </c>
-      <c r="AK12" s="12">
-        <v>31</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AM12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="AN12" s="14" t="s">
@@ -1866,65 +1863,62 @@
       <c r="AP12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AQ12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR12" s="4" t="s">
+      <c r="AQ12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AS12" s="13" t="s">
+      <c r="AR12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AT12" s="18" t="s">
+      <c r="AS12" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="AT12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="AU12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ12" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="AZ12" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="BA12" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB12" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BC12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="BD12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BF12" s="22" t="s">
+      <c r="BE12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1935,10 +1929,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="15" t="s">
+      <c r="T13" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -1954,9 +1948,11 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4" t="s">
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AN13" s="13" t="s">
@@ -1966,51 +1962,48 @@
         <v>38</v>
       </c>
       <c r="AP13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="13" t="s">
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AT13" s="21" t="s">
+      <c r="AS13" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="AT13" s="22"/>
       <c r="AU13" s="22"/>
       <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22" t="s">
+      <c r="AW13" s="22" t="s">
         <v>42</v>
       </c>
+      <c r="AX13" s="22"/>
       <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
+      <c r="AZ13" s="20"/>
       <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
+      <c r="BB13" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="BC13" s="20" t="s">
         <v>43</v>
       </c>
       <c r="BD13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BF13" s="22" t="s">
+      <c r="BE13" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2038,49 +2031,48 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="16">
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="16">
         <v>2</v>
       </c>
+      <c r="AM14" s="17">
+        <v>1.75</v>
+      </c>
       <c r="AN14" s="17">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO14" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="AP14" s="17">
         <v>1</v>
       </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="23" t="s">
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="23" t="s">
         <v>46</v>
       </c>
+      <c r="AT14" s="24"/>
       <c r="AU14" s="24"/>
       <c r="AV14" s="24"/>
       <c r="AW14" s="24"/>
       <c r="AX14" s="24"/>
       <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
+      <c r="AZ14" s="25"/>
       <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
+      <c r="BB14" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="BC14" s="26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="BD14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BF14" s="24"/>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="BE14" s="24"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -2135,12 +2127,8 @@
       <c r="BC15" s="27"/>
       <c r="BD15" s="27"/>
       <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -2195,12 +2183,8 @@
       <c r="BC16" s="28"/>
       <c r="BD16" s="28"/>
       <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    </row>
+    <row r="17" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -2255,12 +2239,8 @@
       <c r="BC17" s="28"/>
       <c r="BD17" s="28"/>
       <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+    </row>
+    <row r="18" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -2315,12 +2295,8 @@
       <c r="BC18" s="28"/>
       <c r="BD18" s="28"/>
       <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+    </row>
+    <row r="19" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -2375,12 +2351,8 @@
       <c r="BC19" s="28"/>
       <c r="BD19" s="28"/>
       <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+    </row>
+    <row r="20" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -2435,12 +2407,8 @@
       <c r="BC20" s="28"/>
       <c r="BD20" s="28"/>
       <c r="BE20" s="28"/>
-      <c r="BF20" s="28"/>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+    </row>
+    <row r="21" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -2495,12 +2463,8 @@
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
       <c r="BE21" s="28"/>
-      <c r="BF21" s="28"/>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+    </row>
+    <row r="22" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -2555,12 +2519,8 @@
       <c r="BC22" s="28"/>
       <c r="BD22" s="28"/>
       <c r="BE22" s="28"/>
-      <c r="BF22" s="28"/>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+    </row>
+    <row r="23" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -2615,12 +2575,8 @@
       <c r="BC23" s="28"/>
       <c r="BD23" s="28"/>
       <c r="BE23" s="28"/>
-      <c r="BF23" s="28"/>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+    </row>
+    <row r="24" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -2675,12 +2631,8 @@
       <c r="BC24" s="28"/>
       <c r="BD24" s="28"/>
       <c r="BE24" s="28"/>
-      <c r="BF24" s="28"/>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+    </row>
+    <row r="25" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -2735,12 +2687,8 @@
       <c r="BC25" s="28"/>
       <c r="BD25" s="28"/>
       <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+    </row>
+    <row r="26" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -2795,12 +2743,8 @@
       <c r="BC26" s="28"/>
       <c r="BD26" s="28"/>
       <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+    </row>
+    <row r="27" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -2855,12 +2799,8 @@
       <c r="BC27" s="28"/>
       <c r="BD27" s="28"/>
       <c r="BE27" s="28"/>
-      <c r="BF27" s="28"/>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+    </row>
+    <row r="28" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -2915,12 +2855,8 @@
       <c r="BC28" s="28"/>
       <c r="BD28" s="28"/>
       <c r="BE28" s="28"/>
-      <c r="BF28" s="28"/>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+    </row>
+    <row r="29" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -2975,12 +2911,8 @@
       <c r="BC29" s="28"/>
       <c r="BD29" s="28"/>
       <c r="BE29" s="28"/>
-      <c r="BF29" s="28"/>
-    </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+    </row>
+    <row r="30" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -3035,12 +2967,8 @@
       <c r="BC30" s="28"/>
       <c r="BD30" s="28"/>
       <c r="BE30" s="28"/>
-      <c r="BF30" s="28"/>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+    </row>
+    <row r="31" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -3095,12 +3023,8 @@
       <c r="BC31" s="28"/>
       <c r="BD31" s="28"/>
       <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+    </row>
+    <row r="32" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -3155,12 +3079,8 @@
       <c r="BC32" s="28"/>
       <c r="BD32" s="28"/>
       <c r="BE32" s="28"/>
-      <c r="BF32" s="28"/>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+    </row>
+    <row r="33" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -3215,12 +3135,8 @@
       <c r="BC33" s="28"/>
       <c r="BD33" s="28"/>
       <c r="BE33" s="28"/>
-      <c r="BF33" s="28"/>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+    </row>
+    <row r="34" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -3275,12 +3191,8 @@
       <c r="BC34" s="28"/>
       <c r="BD34" s="28"/>
       <c r="BE34" s="28"/>
-      <c r="BF34" s="28"/>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+    </row>
+    <row r="35" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -3335,12 +3247,8 @@
       <c r="BC35" s="28"/>
       <c r="BD35" s="28"/>
       <c r="BE35" s="28"/>
-      <c r="BF35" s="28"/>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+    </row>
+    <row r="36" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -3395,12 +3303,8 @@
       <c r="BC36" s="28"/>
       <c r="BD36" s="28"/>
       <c r="BE36" s="28"/>
-      <c r="BF36" s="28"/>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+    </row>
+    <row r="37" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -3455,12 +3359,8 @@
       <c r="BC37" s="28"/>
       <c r="BD37" s="28"/>
       <c r="BE37" s="28"/>
-      <c r="BF37" s="28"/>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+    </row>
+    <row r="38" spans="4:57" x14ac:dyDescent="0.2">
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -3515,37 +3415,30 @@
       <c r="BC38" s="28"/>
       <c r="BD38" s="28"/>
       <c r="BE38" s="28"/>
-      <c r="BF38" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="AQ3:AX3"/>
-    <mergeCell ref="AQ4:AX4"/>
-    <mergeCell ref="AQ5:AX5"/>
-    <mergeCell ref="AQ6:AX6"/>
-    <mergeCell ref="AQ7:AX7"/>
-    <mergeCell ref="AQ8:AX8"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AT10:BF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="AT11:BF11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:AK10"/>
+  <mergeCells count="21">
+    <mergeCell ref="E10:AJ10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AS10:BE10"/>
+    <mergeCell ref="E11:AJ11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AS11:BE11"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AP5:AW5"/>
+    <mergeCell ref="AP6:AW6"/>
+    <mergeCell ref="AP7:AW7"/>
+    <mergeCell ref="AP8:AW8"/>
+    <mergeCell ref="R4:AC4"/>
+    <mergeCell ref="R5:AC5"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AH5:AN5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Fisa colectiva de prezenta</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>workbookPath</t>
   </si>
   <si>
     <t>ORE ZILNIC</t>
@@ -823,9 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,27 +830,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,6 +877,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1236,14 +1239,14 @@
   <dimension ref="A1:BE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0" style="30" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="19" width="3" customWidth="1"/>
     <col min="21" max="36" width="3" customWidth="1"/>
@@ -1256,8 +1259,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>50</v>
+      <c r="A1" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
@@ -1293,20 +1296,20 @@
       <c r="AW3" s="37"/>
     </row>
     <row r="4" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
       <c r="AH4" s="37" t="s">
         <v>3</v>
       </c>
@@ -1328,20 +1331,20 @@
       <c r="AW4" s="37"/>
     </row>
     <row r="5" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="R5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
+      <c r="R5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
       <c r="AH5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1600,154 +1603,154 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="42"/>
+      <c r="E10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="40"/>
       <c r="AK10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AL10" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="42"/>
+      <c r="AL10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="40"/>
       <c r="AQ10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AR10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AS10" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="42"/>
+      <c r="AS10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="40"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="45"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="43"/>
       <c r="AK11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="48"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="46"/>
       <c r="AQ11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AR11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="48"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="46"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="7"/>
       <c r="E12" s="9">
         <v>1</v>
@@ -1890,29 +1893,29 @@
       <c r="AY12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AZ12" s="20" t="s">
+      <c r="AZ12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="BA12" s="20" t="s">
+      <c r="BA12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="BB12" s="20" t="s">
+      <c r="BB12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BC12" s="20" t="s">
+      <c r="BC12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BD12" s="20" t="s">
+      <c r="BD12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="BE12" s="22" t="s">
+      <c r="BE12" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="4"/>
@@ -1968,36 +1971,36 @@
       <c r="AR13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AS13" s="21" t="s">
+      <c r="AS13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22" t="s">
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
       <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20" t="s">
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC13" s="20" t="s">
+      <c r="BC13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BD13" s="20" t="s">
+      <c r="BD13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BE13" s="22" t="s">
+      <c r="BE13" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="8"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -2047,1374 +2050,1372 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="23" t="s">
+      <c r="AS14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="26" t="s">
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="BC14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD14" s="26" t="s">
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE14" s="24"/>
+      <c r="BE14" s="23"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="24"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="24"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="24"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
     </row>
     <row r="17" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="28"/>
-      <c r="BE20" s="28"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
     </row>
     <row r="21" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="28"/>
-      <c r="BE21" s="28"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
     </row>
     <row r="22" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="28"/>
-      <c r="BE22" s="28"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
-      <c r="BE24" s="28"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="28"/>
-      <c r="AV27" s="28"/>
-      <c r="AW27" s="28"/>
-      <c r="AX27" s="28"/>
-      <c r="AY27" s="28"/>
-      <c r="AZ27" s="28"/>
-      <c r="BA27" s="28"/>
-      <c r="BB27" s="28"/>
-      <c r="BC27" s="28"/>
-      <c r="BD27" s="28"/>
-      <c r="BE27" s="28"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="25"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="28"/>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="28"/>
-      <c r="AX28" s="28"/>
-      <c r="AY28" s="28"/>
-      <c r="AZ28" s="28"/>
-      <c r="BA28" s="28"/>
-      <c r="BB28" s="28"/>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
-      <c r="AP29" s="28"/>
-      <c r="AQ29" s="28"/>
-      <c r="AR29" s="28"/>
-      <c r="AS29" s="28"/>
-      <c r="AT29" s="28"/>
-      <c r="AU29" s="28"/>
-      <c r="AV29" s="28"/>
-      <c r="AW29" s="28"/>
-      <c r="AX29" s="28"/>
-      <c r="AY29" s="28"/>
-      <c r="AZ29" s="28"/>
-      <c r="BA29" s="28"/>
-      <c r="BB29" s="28"/>
-      <c r="BC29" s="28"/>
-      <c r="BD29" s="28"/>
-      <c r="BE29" s="28"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="28"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="28"/>
-      <c r="AW30" s="28"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28"/>
-      <c r="AZ30" s="28"/>
-      <c r="BA30" s="28"/>
-      <c r="BB30" s="28"/>
-      <c r="BC30" s="28"/>
-      <c r="BD30" s="28"/>
-      <c r="BE30" s="28"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="28"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28"/>
-      <c r="AZ32" s="28"/>
-      <c r="BA32" s="28"/>
-      <c r="BB32" s="28"/>
-      <c r="BC32" s="28"/>
-      <c r="BD32" s="28"/>
-      <c r="BE32" s="28"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="28"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="28"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="28"/>
-      <c r="BC33" s="28"/>
-      <c r="BD33" s="28"/>
-      <c r="BE33" s="28"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="25"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="25"/>
     </row>
     <row r="34" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28"/>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
-      <c r="BE34" s="28"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="25"/>
+      <c r="BE34" s="25"/>
     </row>
     <row r="35" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="28"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28"/>
-      <c r="AT35" s="28"/>
-      <c r="AU35" s="28"/>
-      <c r="AV35" s="28"/>
-      <c r="AW35" s="28"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28"/>
-      <c r="AZ35" s="28"/>
-      <c r="BA35" s="28"/>
-      <c r="BB35" s="28"/>
-      <c r="BC35" s="28"/>
-      <c r="BD35" s="28"/>
-      <c r="BE35" s="28"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="25"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="25"/>
+      <c r="AW35" s="25"/>
+      <c r="AX35" s="25"/>
+      <c r="AY35" s="25"/>
+      <c r="AZ35" s="25"/>
+      <c r="BA35" s="25"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="25"/>
+      <c r="BD35" s="25"/>
+      <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="28"/>
-      <c r="AR36" s="28"/>
-      <c r="AS36" s="28"/>
-      <c r="AT36" s="28"/>
-      <c r="AU36" s="28"/>
-      <c r="AV36" s="28"/>
-      <c r="AW36" s="28"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28"/>
-      <c r="AZ36" s="28"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="28"/>
-      <c r="BC36" s="28"/>
-      <c r="BD36" s="28"/>
-      <c r="BE36" s="28"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+      <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="28"/>
-      <c r="AR37" s="28"/>
-      <c r="AS37" s="28"/>
-      <c r="AT37" s="28"/>
-      <c r="AU37" s="28"/>
-      <c r="AV37" s="28"/>
-      <c r="AW37" s="28"/>
-      <c r="AX37" s="28"/>
-      <c r="AY37" s="28"/>
-      <c r="AZ37" s="28"/>
-      <c r="BA37" s="28"/>
-      <c r="BB37" s="28"/>
-      <c r="BC37" s="28"/>
-      <c r="BD37" s="28"/>
-      <c r="BE37" s="28"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="25"/>
+      <c r="AZ37" s="25"/>
+      <c r="BA37" s="25"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="25"/>
+      <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="4:57" x14ac:dyDescent="0.2">
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
-      <c r="AK38" s="28"/>
-      <c r="AL38" s="28"/>
-      <c r="AM38" s="28"/>
-      <c r="AN38" s="28"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="28"/>
-      <c r="AR38" s="28"/>
-      <c r="AS38" s="28"/>
-      <c r="AT38" s="28"/>
-      <c r="AU38" s="28"/>
-      <c r="AV38" s="28"/>
-      <c r="AW38" s="28"/>
-      <c r="AX38" s="28"/>
-      <c r="AY38" s="28"/>
-      <c r="AZ38" s="28"/>
-      <c r="BA38" s="28"/>
-      <c r="BB38" s="28"/>
-      <c r="BC38" s="28"/>
-      <c r="BD38" s="28"/>
-      <c r="BE38" s="28"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="25"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="25"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+      <c r="BE38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FoaiePontaj.xlsx
@@ -849,13 +849,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,8 +874,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:BE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1255,8 @@
     <col min="42" max="42" width="6.42578125" customWidth="1"/>
     <col min="43" max="43" width="5.28515625" customWidth="1"/>
     <col min="44" max="44" width="5.140625" customWidth="1"/>
-    <col min="45" max="57" width="3.140625" customWidth="1"/>
+    <col min="45" max="45" width="3.140625" customWidth="1"/>
+    <col min="46" max="57" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
@@ -1264,169 +1265,169 @@
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AH2" s="37" t="s">
+      <c r="AH2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AH3" s="37" t="s">
+      <c r="AH3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AP3" s="37" t="s">
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AP3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
     </row>
     <row r="4" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AH4" s="37" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AH4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AP4" s="37" t="s">
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AP4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
     </row>
     <row r="5" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AH5" s="37" t="s">
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AH5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AP5" s="37" t="s">
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AP5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AH6" s="37" t="s">
+      <c r="AH6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AP6" s="37" t="s">
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AP6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AH7" s="37" t="s">
+      <c r="AH7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AP7" s="37" t="s">
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AP7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AH8" s="37" t="s">
+      <c r="AH8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AP8" s="37" t="s">
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AP8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1610,71 +1611,71 @@
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="40"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="39"/>
       <c r="AK10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AL10" s="38" t="s">
+      <c r="AL10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="40"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="39"/>
       <c r="AQ10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AR10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AS10" s="38" t="s">
+      <c r="AS10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="40"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="39"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1687,65 +1688,65 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="43"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="42"/>
       <c r="AK11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="46"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="45"/>
       <c r="AQ11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AR11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="46"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="45"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -2059,13 +2060,13 @@
       <c r="AW14" s="23"/>
       <c r="AX14" s="23"/>
       <c r="AY14" s="23"/>
-      <c r="AZ14" s="47"/>
+      <c r="AZ14" s="35"/>
       <c r="BA14" s="23"/>
-      <c r="BB14" s="48" t="s">
+      <c r="BB14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48" t="s">
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="BE14" s="23"/>
@@ -3419,12 +3420,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E10:AJ10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AS10:BE10"/>
-    <mergeCell ref="E11:AJ11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AS11:BE11"/>
+    <mergeCell ref="R4:AC4"/>
+    <mergeCell ref="R5:AC5"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AH5:AN5"/>
     <mergeCell ref="AH6:AN6"/>
     <mergeCell ref="AH7:AN7"/>
     <mergeCell ref="AH8:AN8"/>
@@ -3434,15 +3435,15 @@
     <mergeCell ref="AP6:AW6"/>
     <mergeCell ref="AP7:AW7"/>
     <mergeCell ref="AP8:AW8"/>
-    <mergeCell ref="R4:AC4"/>
-    <mergeCell ref="R5:AC5"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="E10:AJ10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AS10:BE10"/>
+    <mergeCell ref="E11:AJ11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AS11:BE11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
